--- a/Nimble Assignment (1).xlsx
+++ b/Nimble Assignment (1).xlsx
@@ -8,6 +8,11 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="gF8GTuMsfv0ls/mMxAPYGYj8GtMN68L3fHEZwqO2Jg8="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2339,7 +2344,6 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2364,12 +2368,8 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2588,13 +2588,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="16.5"/>
     <col customWidth="1" min="2" max="2" width="45.88"/>
+    <col customWidth="1" min="3" max="6" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2602,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>5.011408064858E12</v>
       </c>
@@ -2610,7 +2611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>3.600522416906E12</v>
       </c>
@@ -2618,7 +2619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>3.60052402554E12</v>
       </c>
@@ -2626,7 +2627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>5.011408065022E12</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>3.600524122645E12</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>3.600523448746E12</v>
       </c>
@@ -2650,7 +2651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <v>3.600522230359E12</v>
       </c>
@@ -2658,7 +2659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <v>3.600523999477E12</v>
       </c>
@@ -2666,7 +2667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>3.600524069759E12</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>3.600523718269E12</v>
       </c>
@@ -2682,7 +2683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <v>3.600523183494E12</v>
       </c>
@@ -2690,7 +2691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <v>3.600523881611E12</v>
       </c>
@@ -2698,7 +2699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <v>5.011408065015E12</v>
       </c>
@@ -2706,7 +2707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <v>3.600524043476E12</v>
       </c>
@@ -2714,7 +2715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <v>3.600524053819E12</v>
       </c>
@@ -2722,7 +2723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <v>5.011408064933E12</v>
       </c>
@@ -2730,7 +2731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1">
         <v>3.600522107941E12</v>
       </c>
@@ -2738,7 +2739,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1">
         <v>3.600524078263E12</v>
       </c>
@@ -2746,7 +2747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1">
         <v>3.6005231927E12</v>
       </c>
@@ -2754,7 +2755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <v>3.600524073817E12</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <v>3.600521719596E12</v>
       </c>
@@ -2770,7 +2771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <v>3.600524043674E12</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1">
         <v>3.600523192717E12</v>
       </c>
@@ -2786,7 +2787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <v>5.011408019094E12</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <v>3.600523881666E12</v>
       </c>
@@ -2802,7 +2803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <v>3.60052352613E12</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1">
         <v>3.6005231835E12</v>
       </c>
@@ -2818,7 +2819,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <v>3.600523942015E12</v>
       </c>
@@ -2826,7 +2827,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1">
         <v>3.600523965861E12</v>
       </c>
@@ -2834,7 +2835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1">
         <v>5.011408064964E12</v>
       </c>
@@ -2842,7 +2843,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1">
         <v>5.011408064957E12</v>
       </c>
@@ -2850,7 +2851,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1">
         <v>3.600523947539E12</v>
       </c>
@@ -2858,7 +2859,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1">
         <v>3.600523183517E12</v>
       </c>
@@ -2866,7 +2867,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1">
         <v>3.600523428038E12</v>
       </c>
@@ -2874,7 +2875,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1">
         <v>3.600524053772E12</v>
       </c>
@@ -2882,7 +2883,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1">
         <v>5.011408000252E12</v>
       </c>
@@ -2890,7 +2891,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1">
         <v>3.60052098775E12</v>
       </c>
@@ -2898,7 +2899,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1">
         <v>3.600523999521E12</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1">
         <v>3.600523999514E12</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1">
         <v>3.600523216086E12</v>
       </c>
@@ -2922,7 +2923,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1">
         <v>3.600523526062E12</v>
       </c>
@@ -2930,7 +2931,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1">
         <v>3.600523707997E12</v>
       </c>
@@ -2938,7 +2939,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1">
         <v>3.600523799657E12</v>
       </c>
@@ -2946,7 +2947,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1">
         <v>3.600523428021E12</v>
       </c>
@@ -2954,7 +2955,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1">
         <v>5.011408061581E12</v>
       </c>
@@ -2962,7 +2963,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1">
         <v>3.600520987675E12</v>
       </c>
@@ -2970,7 +2971,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1">
         <v>3.600523982806E12</v>
       </c>
@@ -2978,7 +2979,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1">
         <v>3.600523279111E12</v>
       </c>
@@ -2986,7 +2987,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1">
         <v>3.600523980505E12</v>
       </c>
@@ -2994,7 +2995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1">
         <v>3.60052278322E12</v>
       </c>
@@ -3002,7 +3003,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1">
         <v>5.011408040791E12</v>
       </c>
@@ -3010,7 +3011,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1">
         <v>3.600524053789E12</v>
       </c>
@@ -3018,7 +3019,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1">
         <v>5.011408064919E12</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1">
         <v>5.011408000245E12</v>
       </c>
@@ -3034,7 +3035,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1">
         <v>3.600524015244E12</v>
       </c>
@@ -3042,7 +3043,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1">
         <v>3.600521667279E12</v>
       </c>
@@ -3050,7 +3051,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1">
         <v>3.600523965946E12</v>
       </c>
@@ -3058,7 +3059,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1">
         <v>3.600523457991E12</v>
       </c>
@@ -3066,7 +3067,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1">
         <v>5.011408054392E12</v>
       </c>
@@ -3074,7 +3075,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1">
         <v>5.011408000177E12</v>
       </c>
@@ -3082,7 +3083,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1">
         <v>5.011408064889E12</v>
       </c>
@@ -3090,7 +3091,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1">
         <v>3.600524030162E12</v>
       </c>
@@ -3098,7 +3099,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1">
         <v>3.600523438051E12</v>
       </c>
@@ -3106,7 +3107,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1">
         <v>3.60052338824E12</v>
       </c>
@@ -3114,7 +3115,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1">
         <v>3.600520987781E12</v>
       </c>
@@ -3122,7 +3123,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1">
         <v>3.600523201303E12</v>
       </c>
@@ -3130,7 +3131,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1">
         <v>3.600521366035E12</v>
       </c>
@@ -3138,7 +3139,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1">
         <v>3.600523999507E12</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1">
         <v>3.600522892335E12</v>
       </c>
@@ -3154,7 +3155,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1">
         <v>3.600524053796E12</v>
       </c>
@@ -3162,7 +3163,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1">
         <v>3.600521286579E12</v>
       </c>
@@ -3170,7 +3171,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1">
         <v>5.011408065008E12</v>
       </c>
@@ -3178,7 +3179,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1">
         <v>3.600522248798E12</v>
       </c>
@@ -3186,7 +3187,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1">
         <v>3.600521848289E12</v>
       </c>
@@ -3194,7 +3195,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1">
         <v>3.600524069698E12</v>
       </c>
@@ -3202,7 +3203,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1">
         <v>3.600523881673E12</v>
       </c>
@@ -3210,7 +3211,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1">
         <v>3.60052405384E12</v>
       </c>
@@ -3218,7 +3219,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1">
         <v>3.600521923719E12</v>
       </c>
@@ -3226,7 +3227,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1">
         <v>3.600524061487E12</v>
       </c>
@@ -3234,7 +3235,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1">
         <v>3.600524121853E12</v>
       </c>
@@ -3242,7 +3243,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1">
         <v>3.600520987699E12</v>
       </c>
@@ -3250,7 +3251,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1">
         <v>3.600523941919E12</v>
       </c>
@@ -3258,7 +3259,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1">
         <v>5.011408004304E12</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1">
         <v>3.600521637142E12</v>
       </c>
@@ -3274,7 +3275,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1">
         <v>5.011408064971E12</v>
       </c>
@@ -3282,7 +3283,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1">
         <v>3.600524076078E12</v>
       </c>
@@ -3290,7 +3291,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1">
         <v>3.600520070285E12</v>
       </c>
@@ -3298,7 +3299,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1">
         <v>3.600520987743E12</v>
       </c>
@@ -3306,7 +3307,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1">
         <v>3.600524127992E12</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1">
         <v>3.600522274469E12</v>
       </c>
@@ -3322,7 +3323,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1">
         <v>3.600524075729E12</v>
       </c>
@@ -3330,7 +3331,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1">
         <v>3.600522483663E12</v>
       </c>
@@ -3338,7 +3339,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1">
         <v>3.600524015183E12</v>
       </c>
@@ -3346,7 +3347,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1">
         <v>3.600523682768E12</v>
       </c>
@@ -3354,7 +3355,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1">
         <v>3.600522239178E12</v>
       </c>
@@ -3362,7 +3363,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1">
         <v>3.600524119829E12</v>
       </c>
@@ -3370,7 +3371,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1">
         <v>3.600520921068E12</v>
       </c>
@@ -3378,7 +3379,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1">
         <v>3.60052225175E12</v>
       </c>
@@ -3386,7 +3387,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1">
         <v>3.600524074661E12</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1">
         <v>3.600523017997E12</v>
       </c>
@@ -3402,7 +3403,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1">
         <v>3.600523682836E12</v>
       </c>
@@ -3410,7 +3411,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1">
         <v>3.600524043575E12</v>
       </c>
@@ -3418,7 +3419,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1">
         <v>3.600523971954E12</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1">
         <v>3.60052403052E12</v>
       </c>
@@ -3434,7 +3435,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1">
         <v>5.011408064841E12</v>
       </c>
@@ -3442,7 +3443,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1">
         <v>3.600524074524E12</v>
       </c>
@@ -3450,7 +3451,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1">
         <v>5.011408065046E12</v>
       </c>
@@ -3458,7 +3459,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1">
         <v>3.600523242641E12</v>
       </c>
@@ -3466,7 +3467,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1">
         <v>5.011408039757E12</v>
       </c>
@@ -3474,7 +3475,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1">
         <v>3.600524070076E12</v>
       </c>
@@ -3482,7 +3483,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1">
         <v>3.600521044094E12</v>
       </c>
@@ -3490,7 +3491,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1">
         <v>5.011408062311E12</v>
       </c>
@@ -3498,7 +3499,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1">
         <v>3.600523216093E12</v>
       </c>
@@ -3506,7 +3507,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1">
         <v>3.600520297262E12</v>
       </c>
@@ -3514,7 +3515,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1">
         <v>3.600524125738E12</v>
       </c>
@@ -3522,7 +3523,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1">
         <v>3.600523350148E12</v>
       </c>
@@ -3530,7 +3531,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1">
         <v>3.600523997558E12</v>
       </c>
@@ -3538,7 +3539,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1">
         <v>5.01140800227E12</v>
       </c>
@@ -3546,7 +3547,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1">
         <v>3.60052184892E12</v>
       </c>
@@ -3554,7 +3555,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1">
         <v>3.600523717491E12</v>
       </c>
@@ -3562,7 +3563,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1">
         <v>3.600520987712E12</v>
       </c>
@@ -3570,7 +3571,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1">
         <v>5.011408054644E12</v>
       </c>
@@ -3578,7 +3579,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1">
         <v>3.600520987705E12</v>
       </c>
@@ -3586,7 +3587,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1">
         <v>3.60052405508E12</v>
       </c>
@@ -3594,7 +3595,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1">
         <v>3.60052391294E12</v>
       </c>
@@ -3602,7 +3603,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1">
         <v>3.600524041694E12</v>
       </c>
@@ -3610,7 +3611,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1">
         <v>3.60052171964E12</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1">
         <v>3.600524135645E12</v>
       </c>
@@ -3626,7 +3627,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1">
         <v>3.600524030186E12</v>
       </c>
@@ -3634,7 +3635,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1">
         <v>3.600523708E12</v>
       </c>
@@ -3642,7 +3643,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1">
         <v>3.600520987804E12</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1">
         <v>5.011408027976E12</v>
       </c>
@@ -3658,7 +3659,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1">
         <v>3.600523966776E12</v>
       </c>
@@ -3666,7 +3667,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1">
         <v>5.011408030501E12</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1">
         <v>5.011408061567E12</v>
       </c>
@@ -3682,7 +3683,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1">
         <v>5.011408064896E12</v>
       </c>
@@ -3690,7 +3691,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1">
         <v>3.600524121815E12</v>
       </c>
@@ -3698,7 +3699,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1">
         <v>5.011408065077E12</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1">
         <v>5.0991297E7</v>
       </c>
@@ -3714,7 +3715,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1">
         <v>3.600524043773E12</v>
       </c>
@@ -3722,7 +3723,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1">
         <v>3.600523972111E12</v>
       </c>
@@ -3730,7 +3731,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1">
         <v>3.60052371647E12</v>
       </c>
@@ -3738,7 +3739,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1">
         <v>3.600523335671E12</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1">
         <v>3.600523192694E12</v>
       </c>
@@ -3754,7 +3755,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1">
         <v>3.600523873845E12</v>
       </c>
@@ -3762,7 +3763,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1">
         <v>5.011408054415E12</v>
       </c>
@@ -3770,7 +3771,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1">
         <v>3.600522634133E12</v>
       </c>
@@ -3778,7 +3779,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1">
         <v>3.600524015213E12</v>
       </c>
@@ -3786,7 +3787,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1">
         <v>3.600523999491E12</v>
       </c>
@@ -3794,7 +3795,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1">
         <v>3.600524074807E12</v>
       </c>
@@ -3802,6 +3803,855 @@
         <v>151</v>
       </c>
     </row>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
@@ -3967,7 +4817,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="13.0"/>
     <col customWidth="1" min="2" max="2" width="8.75"/>
@@ -3987,7 +4837,7 @@
     <col customWidth="1" min="16" max="16" width="14.75"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4037,7 +4887,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>3.600523560837E12</v>
       </c>
@@ -4087,7 +4937,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>3.600524134907E12</v>
       </c>
@@ -4137,7 +4987,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>3.600521961216E12</v>
       </c>
@@ -4187,7 +5037,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>3.600523335671E12</v>
       </c>
@@ -4237,7 +5087,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>3.600524015206E12</v>
       </c>
@@ -4287,7 +5137,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>3.600523682768E12</v>
       </c>
@@ -4337,7 +5187,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <v>3.600523614516E12</v>
       </c>
@@ -4387,7 +5237,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <v>3.0147942E7</v>
       </c>
@@ -4437,7 +5287,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>3.0173422E7</v>
       </c>
@@ -4487,7 +5337,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>3.0173484E7</v>
       </c>
@@ -4537,7 +5387,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <v>3.0152045E7</v>
       </c>
@@ -4587,7 +5437,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <v>3.600524076719E12</v>
       </c>
@@ -4637,7 +5487,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <v>3.600523586417E12</v>
       </c>
@@ -4687,7 +5537,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <v>3.600524054663E12</v>
       </c>
@@ -4737,7 +5587,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <v>3.600522500728E12</v>
       </c>
@@ -4787,7 +5637,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <v>3.600524121853E12</v>
       </c>
@@ -4837,7 +5687,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1">
         <v>3.600523350148E12</v>
       </c>
@@ -4887,7 +5737,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1">
         <v>3.600524078263E12</v>
       </c>
@@ -4937,7 +5787,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1">
         <v>5.011408062311E12</v>
       </c>
@@ -4987,7 +5837,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <v>3.600520987835E12</v>
       </c>
@@ -5037,7 +5887,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <v>5.011408027976E12</v>
       </c>
@@ -5087,7 +5937,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <v>3.600523591831E12</v>
       </c>
@@ -5137,7 +5987,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1">
         <v>3.600523524037E12</v>
       </c>
@@ -5187,7 +6037,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <v>3.600523718269E12</v>
       </c>
@@ -5237,7 +6087,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <v>3.60052320131E12</v>
       </c>
@@ -5287,7 +6137,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <v>3.600522031512E12</v>
       </c>
@@ -5337,7 +6187,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1">
         <v>3.600523437764E12</v>
       </c>
@@ -5387,7 +6237,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <v>5.011408061581E12</v>
       </c>
@@ -5437,7 +6287,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1">
         <v>3.600522416906E12</v>
       </c>
@@ -5487,7 +6337,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1">
         <v>3.600523337729E12</v>
       </c>
@@ -5537,7 +6387,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1">
         <v>3.600522230991E12</v>
       </c>
@@ -5587,7 +6437,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1">
         <v>3.600522626077E12</v>
       </c>
@@ -5637,7 +6487,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1">
         <v>3.6005236144E12</v>
       </c>
@@ -5687,7 +6537,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1">
         <v>3.600523971312E12</v>
       </c>
@@ -5737,7 +6587,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1">
         <v>3.600523614455E12</v>
       </c>
@@ -5787,7 +6637,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1">
         <v>3.600523439102E12</v>
       </c>
@@ -5837,7 +6687,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1">
         <v>3.600524076078E12</v>
       </c>
@@ -5887,7 +6737,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1">
         <v>3.60052402666E12</v>
       </c>
@@ -5937,7 +6787,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1">
         <v>3.600522248798E12</v>
       </c>
@@ -5987,7 +6837,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1">
         <v>3.600524069698E12</v>
       </c>
@@ -6037,7 +6887,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1">
         <v>3.600524041694E12</v>
       </c>
@@ -6087,7 +6937,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1">
         <v>3.600523942015E12</v>
       </c>
@@ -6137,7 +6987,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1">
         <v>3.600524121815E12</v>
       </c>
@@ -6187,7 +7037,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1">
         <v>3.600523707997E12</v>
       </c>
@@ -6237,7 +7087,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1">
         <v>3.60052171964E12</v>
       </c>
@@ -6287,7 +7137,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1">
         <v>3.600524143077E12</v>
       </c>
@@ -6337,7 +7187,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1">
         <v>3.600524143107E12</v>
       </c>
@@ -6387,7 +7237,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1">
         <v>5.011408040791E12</v>
       </c>
@@ -6437,7 +7287,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1">
         <v>3.0144361E7</v>
       </c>
@@ -6487,7 +7337,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1">
         <v>3.600524119829E12</v>
       </c>
@@ -6537,7 +7387,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1">
         <v>3.600523881666E12</v>
       </c>
@@ -6587,7 +7437,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1">
         <v>3.600524070076E12</v>
       </c>
@@ -6637,7 +7487,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1">
         <v>3.60052405508E12</v>
       </c>
@@ -6687,7 +7537,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1">
         <v>5.0991297E7</v>
       </c>
@@ -6737,7 +7587,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1">
         <v>5.011408064933E12</v>
       </c>
@@ -6787,7 +7637,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1">
         <v>3.0153202E7</v>
       </c>
@@ -6837,7 +7687,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1">
         <v>3.600521188514E12</v>
       </c>
@@ -6887,7 +7737,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1">
         <v>3.600524054649E12</v>
       </c>
@@ -6937,7 +7787,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1">
         <v>3.600523979318E12</v>
       </c>
@@ -6987,7 +7837,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1">
         <v>5.011408064889E12</v>
       </c>
@@ -7037,7 +7887,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1">
         <v>3.600523279111E12</v>
       </c>
@@ -7087,7 +7937,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1">
         <v>5.011408019094E12</v>
       </c>
@@ -7137,7 +7987,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1">
         <v>3.600524053796E12</v>
       </c>
@@ -7187,7 +8037,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1">
         <v>3.600523448746E12</v>
       </c>
@@ -7237,7 +8087,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1">
         <v>3.600524075729E12</v>
       </c>
@@ -7287,7 +8137,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1">
         <v>3.600522151241E12</v>
       </c>
@@ -7337,7 +8187,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1">
         <v>5.011408004304E12</v>
       </c>
@@ -7387,7 +8237,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1">
         <v>3.600522634133E12</v>
       </c>
@@ -7437,7 +8287,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1">
         <v>5.011408054392E12</v>
       </c>
@@ -7487,7 +8337,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1">
         <v>3.0173576E7</v>
       </c>
@@ -7537,7 +8387,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1">
         <v>3.600520932903E12</v>
       </c>
@@ -7587,7 +8437,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1">
         <v>3.600524029869E12</v>
       </c>
@@ -7637,7 +8487,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1">
         <v>3.600523560813E12</v>
       </c>
@@ -7687,7 +8537,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1">
         <v>3.60052184892E12</v>
       </c>
@@ -7737,7 +8587,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1">
         <v>3.600524127992E12</v>
       </c>
@@ -7787,7 +8637,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1">
         <v>3.600522860747E12</v>
       </c>
@@ -7837,7 +8687,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1">
         <v>3.600522737933E12</v>
       </c>
@@ -7887,7 +8737,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1">
         <v>3.600524146672E12</v>
       </c>
@@ -7937,7 +8787,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1">
         <v>3.600520987675E12</v>
       </c>
@@ -7987,7 +8837,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1">
         <v>3.600523951598E12</v>
       </c>
@@ -8037,7 +8887,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1">
         <v>3.600520987699E12</v>
       </c>
@@ -8087,7 +8937,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1">
         <v>3.600523965946E12</v>
       </c>
@@ -8137,7 +8987,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1">
         <v>3.600523979226E12</v>
       </c>
@@ -8187,7 +9037,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1">
         <v>3.60052402554E12</v>
       </c>
@@ -8237,7 +9087,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1">
         <v>3.600520070285E12</v>
       </c>
@@ -8287,7 +9137,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1">
         <v>3.600524031107E12</v>
       </c>
@@ -8337,7 +9187,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1">
         <v>3.600520815626E12</v>
       </c>
@@ -8387,7 +9237,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1">
         <v>3.600522230878E12</v>
       </c>
@@ -8437,7 +9287,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1">
         <v>3.600524026684E12</v>
       </c>
@@ -8487,7 +9337,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1">
         <v>3.600523017997E12</v>
       </c>
@@ -8537,7 +9387,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1">
         <v>3.600524135645E12</v>
       </c>
@@ -8587,7 +9437,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1">
         <v>3.017362E7</v>
       </c>
@@ -8637,7 +9487,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1">
         <v>3.600521377024E12</v>
       </c>
@@ -8687,7 +9537,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1">
         <v>5.01140800016E12</v>
       </c>
@@ -8737,7 +9587,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1">
         <v>3.600521637142E12</v>
       </c>
@@ -8787,7 +9637,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1">
         <v>5.011408000139E12</v>
       </c>
@@ -8837,7 +9687,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1">
         <v>3.600521848289E12</v>
       </c>
@@ -8887,7 +9737,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1">
         <v>3.0145429E7</v>
       </c>
@@ -8937,7 +9787,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1">
         <v>3.600521366035E12</v>
       </c>
@@ -8987,7 +9837,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1">
         <v>3.0149502E7</v>
       </c>
@@ -9037,7 +9887,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1">
         <v>3.600523500253E12</v>
       </c>
@@ -9087,7 +9937,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1">
         <v>3.600523723485E12</v>
       </c>
@@ -9137,7 +9987,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1">
         <v>3.600524053789E12</v>
       </c>
@@ -9187,7 +10037,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1">
         <v>3.600522499602E12</v>
       </c>
@@ -9237,7 +10087,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1">
         <v>3.0146938E7</v>
       </c>
@@ -9287,7 +10137,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1">
         <v>3.600523523993E12</v>
       </c>
@@ -9337,7 +10187,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1">
         <v>3.600523952199E12</v>
       </c>
@@ -9387,7 +10237,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1">
         <v>3.600524053772E12</v>
       </c>
@@ -9437,7 +10287,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1">
         <v>5.011408064841E12</v>
       </c>
@@ -9487,7 +10337,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1">
         <v>5.011408039757E12</v>
       </c>
@@ -9537,7 +10387,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1">
         <v>3.60052245074E12</v>
       </c>
@@ -9587,7 +10437,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1">
         <v>3.60052278322E12</v>
       </c>
@@ -9637,7 +10487,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1">
         <v>3.0144385E7</v>
       </c>
@@ -9687,7 +10537,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1">
         <v>3.600524054656E12</v>
       </c>
@@ -9737,7 +10587,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1">
         <v>3.600523018024E12</v>
       </c>
@@ -9787,7 +10637,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1">
         <v>3.600523335749E12</v>
       </c>
@@ -9837,7 +10687,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1">
         <v>3.600523723539E12</v>
       </c>
@@ -9887,7 +10737,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1">
         <v>3.600524043476E12</v>
       </c>
@@ -9937,7 +10787,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="1">
         <v>3.600524022167E12</v>
       </c>
@@ -9987,7 +10837,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="1">
         <v>3.600520752228E12</v>
       </c>
@@ -10037,7 +10887,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="1">
         <v>3.0146921E7</v>
       </c>
@@ -10087,7 +10937,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1">
         <v>3.015254E7</v>
       </c>
@@ -10137,7 +10987,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1">
         <v>3.600522483663E12</v>
       </c>
@@ -10187,7 +11037,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="1">
         <v>5.011408064971E12</v>
       </c>
@@ -10237,7 +11087,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="1">
         <v>3.600523428038E12</v>
       </c>
@@ -10287,7 +11137,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="1">
         <v>3.600523971374E12</v>
       </c>
@@ -10337,7 +11187,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="1">
         <v>3.600524134815E12</v>
       </c>
@@ -10387,7 +11237,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1">
         <v>5.011408064919E12</v>
       </c>
@@ -10437,7 +11287,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="1">
         <v>3.600523438051E12</v>
       </c>
@@ -10487,7 +11337,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="1">
         <v>3.600524029739E12</v>
       </c>
@@ -10537,7 +11387,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="1">
         <v>3.600523428021E12</v>
       </c>
@@ -10587,7 +11437,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="1">
         <v>3.60052098775E12</v>
       </c>
@@ -10637,7 +11487,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1">
         <v>5.011408064964E12</v>
       </c>
@@ -10687,7 +11537,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="1">
         <v>3.0144491E7</v>
       </c>
@@ -10737,7 +11587,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="1">
         <v>3.600520433073E12</v>
       </c>
@@ -10787,7 +11637,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="1">
         <v>3.600522862529E12</v>
       </c>
@@ -10837,7 +11687,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="1">
         <v>3.600523216086E12</v>
       </c>
@@ -10887,7 +11737,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="1">
         <v>3.054080055839E12</v>
       </c>
@@ -10937,7 +11787,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="1">
         <v>3.600520987743E12</v>
       </c>
@@ -10987,7 +11837,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="1">
         <v>3.0147485E7</v>
       </c>
@@ -11037,7 +11887,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="1">
         <v>3.600523799657E12</v>
       </c>
@@ -11087,7 +11937,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="1">
         <v>3.0149519E7</v>
       </c>
@@ -11137,7 +11987,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="1">
         <v>3.600523526062E12</v>
       </c>
@@ -11187,7 +12037,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="1">
         <v>3.0149489E7</v>
       </c>
@@ -11237,7 +12087,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="1">
         <v>3.600523971381E12</v>
       </c>
@@ -11287,7 +12137,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="1">
         <v>3.600522862383E12</v>
       </c>
@@ -11337,7 +12187,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="1">
         <v>3.600523982806E12</v>
       </c>
@@ -11387,7 +12237,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="1">
         <v>3.600524030162E12</v>
       </c>
@@ -11437,7 +12287,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="1">
         <v>3.0152052E7</v>
       </c>
@@ -11487,7 +12337,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="1">
         <v>3.0147973E7</v>
       </c>
@@ -11537,7 +12387,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="1">
         <v>3.600522230717E12</v>
       </c>
@@ -11587,7 +12437,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="1">
         <v>3.600523493913E12</v>
       </c>
@@ -11637,7 +12487,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="1">
         <v>3.600523674619E12</v>
       </c>
@@ -11687,7 +12537,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="1">
         <v>3.600523527922E12</v>
       </c>
@@ -11737,7 +12587,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="1">
         <v>5.011408064858E12</v>
       </c>
@@ -11787,7 +12637,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="1">
         <v>5.011408000177E12</v>
       </c>
@@ -11837,7 +12687,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="1">
         <v>5.011408000269E12</v>
       </c>
@@ -11887,7 +12737,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="1">
         <v>3.600523965861E12</v>
       </c>
@@ -11937,7 +12787,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="1">
         <v>5.011408065077E12</v>
       </c>
@@ -11987,7 +12837,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="1">
         <v>3.60052395184E12</v>
       </c>
@@ -12037,7 +12887,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="1">
         <v>3.054080055846E12</v>
       </c>
@@ -12087,7 +12937,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="1">
         <v>3.600520987705E12</v>
       </c>
@@ -12137,7 +12987,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1">
         <v>5.011408064896E12</v>
       </c>
@@ -12187,7 +13037,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="1">
         <v>3.600521821152E12</v>
       </c>
@@ -12237,7 +13087,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="1">
         <v>3.0153059E7</v>
       </c>
@@ -12287,7 +13137,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="1">
         <v>3.600521044094E12</v>
       </c>
@@ -12337,7 +13187,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="1">
         <v>3.600523971954E12</v>
       </c>
@@ -12387,7 +13237,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="1">
         <v>3.600523500185E12</v>
       </c>
@@ -12437,7 +13287,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="1">
         <v>3.600520987804E12</v>
       </c>
@@ -12487,7 +13337,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="1">
         <v>3.600523192717E12</v>
       </c>
@@ -12537,7 +13387,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="1">
         <v>3.600523881611E12</v>
       </c>
@@ -12587,7 +13437,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="1">
         <v>3.6005231927E12</v>
       </c>
@@ -12637,7 +13487,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="1">
         <v>3.600523252954E12</v>
       </c>
@@ -12687,7 +13537,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="1">
         <v>3.054080055778E12</v>
       </c>
@@ -12737,7 +13587,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="1">
         <v>3.60052340928E12</v>
       </c>
@@ -12787,7 +13637,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="1">
         <v>3.600524074661E12</v>
       </c>
@@ -12837,7 +13687,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="1">
         <v>5.011408030501E12</v>
       </c>
@@ -12887,7 +13737,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="1">
         <v>3.600522892335E12</v>
       </c>
@@ -12937,7 +13787,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="1">
         <v>3.600522239017E12</v>
       </c>
@@ -12987,7 +13837,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="1">
         <v>3.600524043773E12</v>
       </c>
@@ -13037,7 +13887,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="1">
         <v>3.600520881799E12</v>
       </c>
@@ -13087,7 +13937,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="1">
         <v>3.600524022129E12</v>
       </c>
@@ -13137,7 +13987,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="1">
         <v>3.600521286579E12</v>
       </c>
@@ -13187,7 +14037,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="1">
         <v>3.60052338824E12</v>
       </c>
@@ -13237,7 +14087,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="1">
         <v>3.600523952397E12</v>
       </c>
@@ -13287,7 +14137,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="1">
         <v>5.011408054644E12</v>
       </c>
@@ -13337,7 +14187,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="1">
         <v>3.600524043575E12</v>
       </c>
@@ -13387,7 +14237,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="1">
         <v>3.600523609833E12</v>
       </c>
@@ -13437,7 +14287,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="1">
         <v>3.0147966E7</v>
       </c>
@@ -13487,7 +14337,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="1">
         <v>3.600522680161E12</v>
       </c>
@@ -13537,7 +14387,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="1">
         <v>3.600522239178E12</v>
       </c>
@@ -13587,7 +14437,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="1">
         <v>3.600524053819E12</v>
       </c>
@@ -13637,7 +14487,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="1">
         <v>3.600523682836E12</v>
       </c>
@@ -13687,7 +14537,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="1">
         <v>3.60052403052E12</v>
       </c>
@@ -13737,7 +14587,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="1">
         <v>3.600522233077E12</v>
       </c>
@@ -13787,7 +14637,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="1">
         <v>3.6005231835E12</v>
       </c>
@@ -13837,7 +14687,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="1">
         <v>3.600523500284E12</v>
       </c>
@@ -13887,7 +14737,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="1">
         <v>3.600523201303E12</v>
       </c>
@@ -13937,7 +14787,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="1">
         <v>5.01140800227E12</v>
       </c>
@@ -13987,7 +14837,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="1">
         <v>5.011408000245E12</v>
       </c>
@@ -14037,7 +14887,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="1">
         <v>3.6005237844E12</v>
       </c>
@@ -14087,7 +14937,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="1">
         <v>3.600522231035E12</v>
       </c>
@@ -14137,7 +14987,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="1">
         <v>3.600523242641E12</v>
       </c>
@@ -14187,7 +15037,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="1">
         <v>3.600521342015E12</v>
       </c>
@@ -14237,7 +15087,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="1">
         <v>3.600524074807E12</v>
       </c>
@@ -14287,7 +15137,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="1">
         <v>3.0150508E7</v>
       </c>
@@ -14337,7 +15187,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="1">
         <v>3.0145405E7</v>
       </c>
@@ -14387,7 +15237,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="1">
         <v>3.600522274469E12</v>
       </c>
@@ -14437,7 +15287,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="1">
         <v>3.600520772035E12</v>
       </c>
@@ -14487,7 +15337,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="1">
         <v>3.600523972111E12</v>
       </c>
@@ -14537,7 +15387,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="1">
         <v>3.600522616252E12</v>
       </c>
@@ -14587,7 +15437,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="1">
         <v>3.600523708E12</v>
       </c>
@@ -14637,7 +15487,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="1">
         <v>3.600521667279E12</v>
       </c>
@@ -14687,7 +15537,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="1">
         <v>3.600524125929E12</v>
       </c>
@@ -14737,7 +15587,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="1">
         <v>3.0145382E7</v>
       </c>
@@ -14787,7 +15637,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="1">
         <v>3.600521966365E12</v>
       </c>
@@ -14837,7 +15687,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1">
         <v>3.600522337072E12</v>
       </c>
@@ -14887,7 +15737,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="1">
         <v>5.011408000252E12</v>
       </c>
@@ -14937,7 +15787,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="1">
         <v>3.60052371647E12</v>
       </c>
@@ -14987,7 +15837,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="1">
         <v>3.600523971305E12</v>
       </c>
@@ -15037,7 +15887,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="1">
         <v>3.600523337712E12</v>
       </c>
@@ -15087,7 +15937,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="1">
         <v>3.600523947539E12</v>
       </c>
@@ -15137,7 +15987,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="1">
         <v>3.600524074524E12</v>
       </c>
@@ -15187,7 +16037,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="1">
         <v>3.0147935E7</v>
       </c>
@@ -15237,7 +16087,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="1">
         <v>5.011408065008E12</v>
       </c>
@@ -15287,7 +16137,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="1">
         <v>3.600521365984E12</v>
       </c>
@@ -15337,7 +16187,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="1">
         <v>3.600524030032E12</v>
       </c>
@@ -15387,7 +16237,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="1">
         <v>3.600523597468E12</v>
       </c>
@@ -15437,7 +16287,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="1">
         <v>3.600523717491E12</v>
       </c>
@@ -15487,7 +16337,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="1">
         <v>3.600524029647E12</v>
       </c>
@@ -15537,7 +16387,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="1">
         <v>3.600523500239E12</v>
       </c>
@@ -15587,7 +16437,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="1">
         <v>5.011408064957E12</v>
       </c>
@@ -15637,7 +16487,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="1">
         <v>3.600523980505E12</v>
       </c>
@@ -15687,7 +16537,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="1">
         <v>3.6005218935E12</v>
       </c>
@@ -15737,7 +16587,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="1">
         <v>3.600524043674E12</v>
       </c>
@@ -15787,7 +16637,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="1">
         <v>3.600523577309E12</v>
       </c>
@@ -15837,7 +16687,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="1">
         <v>3.600523873845E12</v>
       </c>
@@ -15887,7 +16737,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="1">
         <v>3.600523586912E12</v>
       </c>
@@ -15937,7 +16787,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="1">
         <v>3.600524043872E12</v>
       </c>
@@ -15987,7 +16837,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="1">
         <v>3.600524031091E12</v>
       </c>
@@ -16037,7 +16887,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="1">
         <v>3.600524135195E12</v>
       </c>
@@ -16087,7 +16937,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="1">
         <v>3.0173613E7</v>
       </c>
@@ -16137,7 +16987,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="1">
         <v>3.0173651E7</v>
       </c>
@@ -16187,7 +17037,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="1">
         <v>3.600523586851E12</v>
       </c>
@@ -16237,7 +17087,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="1">
         <v>3.600523192694E12</v>
       </c>
@@ -16287,7 +17137,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="1">
         <v>3.600520432472E12</v>
       </c>
@@ -16337,7 +17187,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="1">
         <v>3.0149472E7</v>
       </c>
@@ -16387,7 +17237,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="1">
         <v>3.600524061487E12</v>
       </c>
@@ -16437,7 +17287,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="1">
         <v>3.600521987414E12</v>
       </c>
@@ -16487,7 +17337,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="1">
         <v>5.011408054415E12</v>
       </c>
@@ -16537,7 +17387,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="1">
         <v>3.015308E7</v>
       </c>
@@ -16587,7 +17437,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="1">
         <v>3.600523947737E12</v>
       </c>
@@ -16637,7 +17487,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="1">
         <v>3.600523971343E12</v>
       </c>
@@ -16687,7 +17537,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="1">
         <v>3.600523183494E12</v>
       </c>
@@ -16737,7 +17587,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="1">
         <v>3.600524123161E12</v>
       </c>
@@ -16787,7 +17637,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="1">
         <v>3.600524015244E12</v>
       </c>
@@ -16837,7 +17687,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="1">
         <v>3.600520921068E12</v>
       </c>
@@ -16887,7 +17737,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="1">
         <v>3.600523966905E12</v>
       </c>
@@ -16937,7 +17787,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="1">
         <v>3.600523881673E12</v>
       </c>
@@ -16987,7 +17837,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="1">
         <v>3.0158672E7</v>
       </c>
@@ -17037,7 +17887,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="1">
         <v>3.600523457991E12</v>
       </c>
@@ -17087,7 +17937,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="1">
         <v>3.0146945E7</v>
       </c>
@@ -17137,7 +17987,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="1">
         <v>3.600523216093E12</v>
       </c>
@@ -17187,7 +18037,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="1">
         <v>3.600523500154E12</v>
       </c>
@@ -17237,7 +18087,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="1">
         <v>3.600522083269E12</v>
       </c>
@@ -17287,7 +18137,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="1">
         <v>3.600523999477E12</v>
       </c>
@@ -17337,7 +18187,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="1">
         <v>3.600524015213E12</v>
       </c>
@@ -17387,7 +18237,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="1">
         <v>3.600523503285E12</v>
       </c>
@@ -17437,7 +18287,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="1">
         <v>3.600523524006E12</v>
       </c>
@@ -17487,7 +18337,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="1">
         <v>3.600524030186E12</v>
       </c>
@@ -17537,7 +18387,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="1">
         <v>3.600524082345E12</v>
       </c>
@@ -17587,7 +18437,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="1">
         <v>3.600524069759E12</v>
       </c>
@@ -17637,7 +18487,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="1">
         <v>3.600520297262E12</v>
       </c>
@@ -17687,7 +18537,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="1">
         <v>3.600522713418E12</v>
       </c>
@@ -17737,7 +18587,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="1">
         <v>3.600522862413E12</v>
       </c>
@@ -17787,7 +18637,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="1">
         <v>3.600524073817E12</v>
       </c>
@@ -17837,7 +18687,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="1">
         <v>3.600520987712E12</v>
       </c>
@@ -17887,7 +18737,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="1">
         <v>3.600523450435E12</v>
       </c>
@@ -17937,7 +18787,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="1">
         <v>3.600522862475E12</v>
       </c>
@@ -17987,7 +18837,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="1">
         <v>3.60052405384E12</v>
       </c>
@@ -18037,7 +18887,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="1">
         <v>3.60052352613E12</v>
       </c>
@@ -18087,7 +18937,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="1">
         <v>3.600520987781E12</v>
       </c>
@@ -18137,7 +18987,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="1">
         <v>3.600524125738E12</v>
       </c>
@@ -18187,7 +19037,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="1">
         <v>5.011408002287E12</v>
       </c>
@@ -18237,7 +19087,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="1">
         <v>3.600523409273E12</v>
       </c>
@@ -18287,7 +19137,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="1">
         <v>3.600524122645E12</v>
       </c>
@@ -18337,7 +19187,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="1">
         <v>3.600523966776E12</v>
       </c>
@@ -18387,7 +19237,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="1">
         <v>3.600523183517E12</v>
       </c>
@@ -18437,7 +19287,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="1">
         <v>5.011408065022E12</v>
       </c>
@@ -18487,7 +19337,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="1">
         <v>3.600522860822E12</v>
       </c>
@@ -18537,7 +19387,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="1">
         <v>3.600524082376E12</v>
       </c>
@@ -18587,7 +19437,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="1">
         <v>3.600524026639E12</v>
       </c>
@@ -18637,7 +19487,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="1">
         <v>5.011408061567E12</v>
       </c>
@@ -18687,7 +19537,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="1">
         <v>3.60052225175E12</v>
       </c>
@@ -18737,7 +19587,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="1">
         <v>3.600522107941E12</v>
       </c>
@@ -18787,7 +19637,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="1">
         <v>3.600524015183E12</v>
       </c>
@@ -18837,7 +19687,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="1">
         <v>5.011408043143E12</v>
       </c>
@@ -18887,7 +19737,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="1">
         <v>3.600522230359E12</v>
       </c>
@@ -18937,7 +19787,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="1">
         <v>3.600523997558E12</v>
       </c>
@@ -18987,7 +19837,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="1">
         <v>3.600522860785E12</v>
       </c>
@@ -19037,6 +19887,705 @@
         <v>175</v>
       </c>
     </row>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
